--- a/biology/Botanique/Cortinaire_des_chiens/Cortinaire_des_chiens.xlsx
+++ b/biology/Botanique/Cortinaire_des_chiens/Cortinaire_des_chiens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cortinarius caninus
 Cortinarius caninus, de son nom français, le Cortinaire des chiens est un champignon basidiomycète du genre cortinaire dans la famille des Cortinariaceae.
@@ -512,7 +524,9 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cortinaires sont des champignons supérieurs, pourvus de ce que l'on appelle une cortine (sorte de voile très fin). C'est le genre le plus prolifique du monde fongique, on en dénombre plus d'un millier.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cortinaire des chiens possède un chapeau crème à brun mesurant jusqu'à 9 cm de diamètre. Le pied est fibrilleux, blanchâtre, bulbeux à la base et mesure de 5 à 11 cm de haut pour un diamètre de 0,8 à 1.4 cm.
 Les lames sont assez serrées mauves mais rapidement tachées de brun-rouille par la sporée qui est rouille.
@@ -576,7 +592,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Non comestible.
 </t>
